--- a/stock_historical_data/1wk/FEDERALBNK.NS.xlsx
+++ b/stock_historical_data/1wk/FEDERALBNK.NS.xlsx
@@ -83573,7 +83573,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/FEDERALBNK.NS.xlsx
+++ b/stock_historical_data/1wk/FEDERALBNK.NS.xlsx
@@ -79172,7 +79172,9 @@
       <c r="P1485" t="n">
         <v>0</v>
       </c>
-      <c r="Q1485" t="inlineStr"/>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/FEDERALBNK.NS.xlsx
+++ b/stock_historical_data/1wk/FEDERALBNK.NS.xlsx
@@ -83685,7 +83685,9 @@
       <c r="Q1486" t="n">
         <v>2</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/FEDERALBNK.NS.xlsx
+++ b/stock_historical_data/1wk/FEDERALBNK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1486"/>
+  <dimension ref="A1:R1488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83689,6 +83689,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>174.3999938964844</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>179.7299957275391</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>173.25</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>176.5200042724609</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>176.5200042724609</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>62818564</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>175.7400054931641</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>179.3999938964844</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>172.1300048828125</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>177.25</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>177.25</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>51949279</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/FEDERALBNK.NS.xlsx
+++ b/stock_historical_data/1wk/FEDERALBNK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1488"/>
+  <dimension ref="A1:R1500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -83621,7 +83621,7 @@
         <v>23</v>
       </c>
       <c r="O1485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1485" t="n">
         <v>0</v>
@@ -83741,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83795,7 +83797,657 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>177.3000030517578</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>187.1999969482422</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>173.9100036621094</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>186.1900024414062</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>185.0910949707031</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>74433308</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>187.1000061035156</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>197.1900024414062</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>195.4799957275391</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>194.3262634277344</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>83978958</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>195.4799957275391</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>197.7700042724609</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>190.8399963378906</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>191.4700012207031</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>190.3399353027344</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>42611760</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>191.4499969482422</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>205.1499938964844</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>190.1000061035156</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>198</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>196.8313903808594</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>172085506</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>199.2100067138672</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>203.5099945068359</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>197.1000061035156</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>197.7100067138672</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>196.5431060791016</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>61547683</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>193.0500030517578</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>198.25</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>190.2599945068359</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>197.5599975585938</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>196.3939819335938</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>47060298</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>195</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>206.5899963378906</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>195</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>203.6699981689453</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>202.4679260253906</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>42298974</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>205.1999969482422</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>205.6999969482422</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>199</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>199.5599975585938</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>198.3821868896484</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>44202414</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>199.9499969482422</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>200.7899932861328</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>193.9299926757812</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>194.6999969482422</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>194.6999969482422</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>39111249</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>182.4100036621094</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>183.4499969482422</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>183.4499969482422</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>42394478</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>183.4499969482422</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>187.75</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>181.7299957275391</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>186.5200042724609</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>186.5200042724609</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>34885578</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>186.7200012207031</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>189</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>182.4100036621094</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>185.0399932861328</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>185.0399932861328</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>38683800</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/FEDERALBNK.NS.xlsx
+++ b/stock_historical_data/1wk/FEDERALBNK.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1500"/>
+  <dimension ref="A1:R1527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -83853,7 +83853,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83907,7 +83909,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83961,7 +83965,9 @@
       <c r="Q1491" t="n">
         <v>1</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -84015,7 +84021,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -84069,7 +84077,9 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -84123,7 +84133,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84177,7 +84189,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84231,7 +84245,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84285,7 +84301,9 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
@@ -84339,7 +84357,9 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
@@ -84385,7 +84405,7 @@
         <v>37</v>
       </c>
       <c r="O1499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1499" t="n">
         <v>0</v>
@@ -84393,7 +84413,9 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
@@ -84447,7 +84469,1413 @@
       <c r="Q1500" t="n">
         <v>0</v>
       </c>
-      <c r="R1500" t="inlineStr"/>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>186.3500061035156</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>184.7200012207031</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>193.7100067138672</v>
+      </c>
+      <c r="F1501" t="inlineStr"/>
+      <c r="G1501" t="n">
+        <v>59735311</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>193.8000030517578</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>200.1000061035156</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>191.0599975585938</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>193.6699981689453</v>
+      </c>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="n">
+        <v>58482804</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>196</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>196.4799957275391</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>182.3500061035156</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>187.5500030517578</v>
+      </c>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="n">
+        <v>65112738</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>188.8600006103516</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>199.8099975585938</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>188.5599975585938</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>195.3000030517578</v>
+      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="n">
+        <v>58262164</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>197.25</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>182.6999969482422</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>186.2400054931641</v>
+      </c>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="n">
+        <v>33472494</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>186.1000061035156</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>205.6600036621094</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>182</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>204.1699981689453</v>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="n">
+        <v>122124364</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>204.1699981689453</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>207.9299926757812</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>200.1999969482422</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>206.7700042724609</v>
+      </c>
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="n">
+        <v>62335639</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>207.8000030517578</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>209.7700042724609</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>196</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>196.9799957275391</v>
+      </c>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="n">
+        <v>43881757</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>197</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>212</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>195.0399932861328</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>209.3699951171875</v>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="n">
+        <v>64657317</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>211</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>214.4400024414062</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>208.7899932861328</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>210.7799987792969</v>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="n">
+        <v>55627672</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>210.7799987792969</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>217</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>206.3399963378906</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>213.3999938964844</v>
+      </c>
+      <c r="F1511" t="inlineStr"/>
+      <c r="G1511" t="n">
+        <v>41313925</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>214.0500030517578</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>215.6999969482422</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>209.6999969482422</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>213.1499938964844</v>
+      </c>
+      <c r="F1512" t="inlineStr"/>
+      <c r="G1512" t="n">
+        <v>20999691</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>213.1499938964844</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>214.4400024414062</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>190.5500030517578</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>194.4600067138672</v>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="n">
+        <v>43363949</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>195</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>199.6100006103516</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>194.8500061035156</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>196.7299957275391</v>
+      </c>
+      <c r="F1514" t="inlineStr"/>
+      <c r="G1514" t="n">
+        <v>26651773</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>207.2299957275391</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>195.5500030517578</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>205.25</v>
+      </c>
+      <c r="F1515" t="inlineStr"/>
+      <c r="G1515" t="n">
+        <v>76193166</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>205.3000030517578</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>205.6399993896484</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>187.0599975585938</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>189.1000061035156</v>
+      </c>
+      <c r="F1516" t="inlineStr"/>
+      <c r="G1516" t="n">
+        <v>36059556</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>186.5200042724609</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>197.8399963378906</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>185.7100067138672</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>191.5800018310547</v>
+      </c>
+      <c r="F1517" t="inlineStr"/>
+      <c r="G1517" t="n">
+        <v>31080761</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>193.4400024414062</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>195.0500030517578</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>186.5299987792969</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>188.1100006103516</v>
+      </c>
+      <c r="F1518" t="inlineStr"/>
+      <c r="G1518" t="n">
+        <v>30996225</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>186.0200042724609</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>194.1000061035156</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>178.0899963378906</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>184.0899963378906</v>
+      </c>
+      <c r="F1519" t="inlineStr"/>
+      <c r="G1519" t="n">
+        <v>92822734</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>183</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>189.5200042724609</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>188.1399993896484</v>
+      </c>
+      <c r="F1520" t="inlineStr"/>
+      <c r="G1520" t="n">
+        <v>24670171</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>188.8500061035156</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>189.4199981689453</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>177.1100006103516</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>181.0099945068359</v>
+      </c>
+      <c r="F1521" t="inlineStr"/>
+      <c r="G1521" t="n">
+        <v>24324988</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>185.8300018310547</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>176.9600067138672</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>179.8500061035156</v>
+      </c>
+      <c r="F1522" t="inlineStr"/>
+      <c r="G1522" t="n">
+        <v>20876241</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>180</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>183.3999938964844</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>175.0099945068359</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>177.6199951171875</v>
+      </c>
+      <c r="F1523" t="inlineStr"/>
+      <c r="G1523" t="n">
+        <v>40234312</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>177.8099975585938</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>172.6600036621094</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>180.5099945068359</v>
+      </c>
+      <c r="F1524" t="inlineStr"/>
+      <c r="G1524" t="n">
+        <v>37852165</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>180.3999938964844</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>181.1499938964844</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>176.6000061035156</v>
+      </c>
+      <c r="F1525" t="inlineStr"/>
+      <c r="G1525" t="n">
+        <v>21127576</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>177.4799957275391</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>188.3099975585938</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>175.5500030517578</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>187.3000030517578</v>
+      </c>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="n">
+        <v>25623371</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>188</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>200</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>187.3000030517578</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>192.7299957275391</v>
+      </c>
+      <c r="F1527" t="inlineStr"/>
+      <c r="G1527" t="n">
+        <v>53833764</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
